--- a/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 1</t>
   </si>
@@ -61,460 +61,505 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Kacper Wiśniewski</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>Szymon Grabowski</t>
+  </si>
+  <si>
+    <t>Emilia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>17,30</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>0,60</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>10,30</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>27,51</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>24,53</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>11,75</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>30,79</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>27,96</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>15,12</t>
+  </si>
+  <si>
+    <t>22,36</t>
+  </si>
+  <si>
+    <t>22,72</t>
+  </si>
+  <si>
+    <t>23,42</t>
+  </si>
+  <si>
+    <t>9,47</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>6,42</t>
+  </si>
+  <si>
+    <t>3,95</t>
+  </si>
+  <si>
+    <t>7,68</t>
+  </si>
+  <si>
+    <t>19,24</t>
+  </si>
+  <si>
+    <t>9,03</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Antoni Wiśniewski</t>
+  </si>
+  <si>
+    <t>17.04.2001</t>
+  </si>
+  <si>
+    <t>10 497,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>01.01.1987</t>
+  </si>
+  <si>
+    <t>9 941,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>07.12.1975</t>
+  </si>
+  <si>
+    <t>7 484,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>11.06.1992</t>
+  </si>
+  <si>
+    <t>6 492,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>18.06.1988</t>
+  </si>
+  <si>
+    <t>3 201,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>11.09.1988</t>
+  </si>
+  <si>
+    <t>3 519,00 zł</t>
+  </si>
+  <si>
     <t>Kacper Kozłowski</t>
   </si>
   <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>Szymon Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>Antoni Kozłowski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,60</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>13,40</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>25,04</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>27,66</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>10,11</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>24,78</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>16,98</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>8,49</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>18,61</t>
-  </si>
-  <si>
-    <t>8,39</t>
-  </si>
-  <si>
-    <t>28,65</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>10,76</t>
-  </si>
-  <si>
-    <t>25,16</t>
-  </si>
-  <si>
-    <t>15,01</t>
-  </si>
-  <si>
-    <t>26,68</t>
-  </si>
-  <si>
-    <t>14,21</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>04.04.1982</t>
-  </si>
-  <si>
-    <t>8 052,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Malinowska</t>
-  </si>
-  <si>
-    <t>24.04.1981</t>
-  </si>
-  <si>
-    <t>5 221,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Kubiak</t>
-  </si>
-  <si>
-    <t>28.10.2003</t>
-  </si>
-  <si>
-    <t>14 785,00 zł</t>
+    <t>05.11.1987</t>
+  </si>
+  <si>
+    <t>13 762,00 zł</t>
   </si>
   <si>
     <t>Amelia Wójcik</t>
   </si>
   <si>
-    <t>27.05.1980</t>
-  </si>
-  <si>
-    <t>5 920,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Jankowski</t>
-  </si>
-  <si>
-    <t>21.12.1977</t>
-  </si>
-  <si>
-    <t>6 315,00 zł</t>
-  </si>
-  <si>
-    <t>14.08.2003</t>
-  </si>
-  <si>
-    <t>9 712,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Maciejewska</t>
-  </si>
-  <si>
-    <t>25.12.2005</t>
-  </si>
-  <si>
-    <t>7 978,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>12.07.2005</t>
-  </si>
-  <si>
-    <t>8 560,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Wiśniewski</t>
-  </si>
-  <si>
-    <t>14.03.1977</t>
-  </si>
-  <si>
-    <t>13 074,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>25.03.1998</t>
-  </si>
-  <si>
-    <t>6 039,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>25.08.1975</t>
-  </si>
-  <si>
-    <t>13 716,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Zieliński</t>
-  </si>
-  <si>
-    <t>13.03.1989</t>
-  </si>
-  <si>
-    <t>13 694,00 zł</t>
+    <t>27.09.1987</t>
+  </si>
+  <si>
+    <t>8 337,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
+  </si>
+  <si>
+    <t>25.08.1985</t>
+  </si>
+  <si>
+    <t>7 469,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>27.09.2005</t>
+  </si>
+  <si>
+    <t>14 356,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>21.03.1998</t>
+  </si>
+  <si>
+    <t>8 590,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Sikorska</t>
+  </si>
+  <si>
+    <t>06.12.2002</t>
+  </si>
+  <si>
+    <t>4 254,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>06.07.1989</t>
+  </si>
+  <si>
+    <t>4 383,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>03.03.1979</t>
+  </si>
+  <si>
+    <t>11 266,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>28.11.2005</t>
+  </si>
+  <si>
+    <t>12 226,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>23.12.1981</t>
+  </si>
+  <si>
+    <t>10 561,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>28.01.1989</t>
+  </si>
+  <si>
+    <t>14 593,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,310 +631,307 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 443,00 zł</t>
+  </si>
+  <si>
+    <t>1 977,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>557,00 zł</t>
+  </si>
+  <si>
+    <t>780,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>682,00 zł</t>
+  </si>
+  <si>
+    <t>812,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 187,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>779,00 zł</t>
+  </si>
+  <si>
+    <t>888,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 144,00 zł</t>
+  </si>
+  <si>
+    <t>1 590,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 202,00 zł</t>
+  </si>
+  <si>
+    <t>1 334,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 489,00 zł</t>
+  </si>
+  <si>
+    <t>1 965,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>962,00 zł</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
+    <t>1 372,00 zł</t>
+  </si>
+  <si>
+    <t>1 852,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>748,00 zł</t>
-  </si>
-  <si>
-    <t>920,00 zł</t>
+    <t>1 338,00 zł</t>
+  </si>
+  <si>
+    <t>1 806,00 zł</t>
+  </si>
+  <si>
+    <t>1 567,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 479,00 zł</t>
+  </si>
+  <si>
+    <t>1 642,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>mazowieckie</t>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 584,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 303,00 zł</t>
+  </si>
+  <si>
+    <t>1 811,00 zł</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 585,00 zł</t>
+    <t>1 468,00 zł</t>
+  </si>
+  <si>
+    <t>1 688,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 466,00 zł</t>
+  </si>
+  <si>
+    <t>1 774,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>712,00 zł</t>
+  </si>
+  <si>
+    <t>968,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 167,00 zł</t>
+  </si>
+  <si>
+    <t>1 307,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 431,00 zł</t>
+  </si>
+  <si>
+    <t>1 703,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>922,00 zł</t>
+  </si>
+  <si>
+    <t>1 023,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 226,00 zł</t>
+  </si>
+  <si>
+    <t>1 447,00 zł</t>
+  </si>
+  <si>
+    <t>742,00 zł</t>
+  </si>
+  <si>
+    <t>905,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>608,00 zł</t>
+  </si>
+  <si>
+    <t>687,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>829,00 zł</t>
+  </si>
+  <si>
+    <t>1 028,00 zł</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>1 667,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>522,00 zł</t>
-  </si>
-  <si>
-    <t>726,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 325,00 zł</t>
-  </si>
-  <si>
-    <t>1 802,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>679,00 zł</t>
+  </si>
+  <si>
+    <t>808,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>952,00 zł</t>
-  </si>
-  <si>
-    <t>1 123,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>897,00 zł</t>
-  </si>
-  <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 915,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 530,00 zł</t>
-  </si>
-  <si>
-    <t>1 105,00 zł</t>
-  </si>
-  <si>
-    <t>1 359,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 162,00 zł</t>
-  </si>
-  <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 099,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
-    <t>1 382,00 zł</t>
-  </si>
-  <si>
-    <t>1 672,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>885,00 zł</t>
-  </si>
-  <si>
-    <t>1 230,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 461,00 zł</t>
-  </si>
-  <si>
-    <t>1 607,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>545,00 zł</t>
-  </si>
-  <si>
-    <t>600,00 zł</t>
-  </si>
-  <si>
-    <t>1 469,00 zł</t>
-  </si>
-  <si>
-    <t>1 660,00 zł</t>
-  </si>
-  <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 691,00 zł</t>
-  </si>
-  <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
-    <t>1 682,00 zł</t>
-  </si>
-  <si>
-    <t>1 240,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 252,00 zł</t>
-  </si>
-  <si>
-    <t>1 665,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>1 594,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
-    <t>1 506,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>641,00 zł</t>
-  </si>
-  <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>1 623,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 595,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1446,19 +1488,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1467,19 +1509,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1509,10 +1551,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
@@ -1521,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1530,19 +1572,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1551,19 +1593,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1575,16 +1617,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1593,19 +1635,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1614,19 +1656,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1635,19 +1677,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
         <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1656,19 +1698,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1677,19 +1719,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1811,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1826,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1841,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1856,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1871,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1886,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2003,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2015,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2027,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2039,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2051,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2099,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2111,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2123,7 +2165,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2135,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2147,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2195,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2207,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2219,7 +2261,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2231,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2243,7 +2285,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2277,10 +2319,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2386,13 +2428,13 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2404,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2418,25 +2460,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
         <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2444,31 +2486,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2476,28 +2518,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
       </c>
       <c r="J15" s="3">
         <v>6</v>
@@ -2514,25 +2556,25 @@
         <v>114</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
         <v>6</v>
       </c>
       <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2540,31 +2582,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
         <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6</v>
       </c>
       <c r="H17" s="3">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2572,19 +2614,19 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
@@ -2593,45 +2635,29 @@
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>6</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
@@ -2649,27 +2675,11 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,10 +2692,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2697,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2707,98 +2717,98 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>145</v>
@@ -2873,33 +2883,88 @@
         <v>164</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
+      <c r="A25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>169</v>
+      <c r="A26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
+      <c r="A27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2917,10 +2982,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2936,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2946,75 +3011,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3022,22 +3087,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3045,22 +3110,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3068,22 +3133,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3091,22 +3156,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3114,22 +3179,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3137,22 +3202,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3160,22 +3225,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3183,22 +3248,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3206,22 +3271,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3229,22 +3294,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3252,22 +3317,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3275,22 +3340,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3298,22 +3363,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3321,22 +3386,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3344,22 +3409,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3367,22 +3432,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3390,22 +3455,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3413,22 +3478,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3436,22 +3501,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3459,22 +3524,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3482,22 +3547,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3505,22 +3570,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3528,22 +3593,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3551,19 +3616,19 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>208</v>
@@ -3574,22 +3639,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3597,22 +3662,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3620,113 +3685,67 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>165</v>
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>17,30</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,60</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,30</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>27,51</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>24,53</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,75</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,79</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>27,96</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>15,12</t>
-  </si>
-  <si>
-    <t>22,36</t>
-  </si>
-  <si>
-    <t>22,72</t>
-  </si>
-  <si>
-    <t>23,42</t>
-  </si>
-  <si>
-    <t>9,47</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>6,42</t>
-  </si>
-  <si>
-    <t>3,95</t>
-  </si>
-  <si>
-    <t>7,68</t>
-  </si>
-  <si>
-    <t>19,24</t>
-  </si>
-  <si>
-    <t>9,03</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -415,153 +337,102 @@
     <t>17.04.2001</t>
   </si>
   <si>
-    <t>10 497,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Piotrowski</t>
   </si>
   <si>
     <t>01.01.1987</t>
   </si>
   <si>
-    <t>9 941,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Mazur</t>
   </si>
   <si>
     <t>07.12.1975</t>
   </si>
   <si>
-    <t>7 484,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Urbaniak</t>
   </si>
   <si>
     <t>11.06.1992</t>
   </si>
   <si>
-    <t>6 492,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Wilk</t>
   </si>
   <si>
     <t>18.06.1988</t>
   </si>
   <si>
-    <t>3 201,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Grabowski</t>
   </si>
   <si>
     <t>11.09.1988</t>
   </si>
   <si>
-    <t>3 519,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kozłowski</t>
   </si>
   <si>
     <t>05.11.1987</t>
   </si>
   <si>
-    <t>13 762,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Wójcik</t>
   </si>
   <si>
     <t>27.09.1987</t>
   </si>
   <si>
-    <t>8 337,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Lewandowski</t>
   </si>
   <si>
     <t>25.08.1985</t>
   </si>
   <si>
-    <t>7 469,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Borkowska</t>
   </si>
   <si>
     <t>27.09.2005</t>
   </si>
   <si>
-    <t>14 356,00 zł</t>
-  </si>
-  <si>
     <t>Julia Urbaniak</t>
   </si>
   <si>
     <t>21.03.1998</t>
   </si>
   <si>
-    <t>8 590,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Sikorska</t>
   </si>
   <si>
     <t>06.12.2002</t>
   </si>
   <si>
-    <t>4 254,00 zł</t>
-  </si>
-  <si>
     <t>Lena Jaworska</t>
   </si>
   <si>
     <t>06.07.1989</t>
   </si>
   <si>
-    <t>4 383,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Jankowski</t>
   </si>
   <si>
     <t>03.03.1979</t>
   </si>
   <si>
-    <t>11 266,00 zł</t>
-  </si>
-  <si>
     <t>Maja Jaworska</t>
   </si>
   <si>
     <t>28.11.2005</t>
   </si>
   <si>
-    <t>12 226,00 zł</t>
-  </si>
-  <si>
     <t>Maja Borkowska</t>
   </si>
   <si>
     <t>23.12.1981</t>
   </si>
   <si>
-    <t>10 561,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Borkowska</t>
   </si>
   <si>
     <t>28.01.1989</t>
   </si>
   <si>
-    <t>14 593,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -574,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -637,12 +505,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>1 977,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -652,21 +514,9 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>557,00 zł</t>
-  </si>
-  <si>
-    <t>780,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>682,00 zł</t>
-  </si>
-  <si>
-    <t>812,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -679,12 +529,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
@@ -694,12 +538,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>779,00 zł</t>
-  </si>
-  <si>
-    <t>888,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -712,12 +550,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 144,00 zł</t>
-  </si>
-  <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -730,51 +562,24 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 202,00 zł</t>
-  </si>
-  <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>1 965,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 852,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>1 806,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -784,12 +589,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>1 642,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -799,139 +598,52 @@
     <t>maj</t>
   </si>
   <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 584,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 303,00 zł</t>
-  </si>
-  <si>
-    <t>1 811,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 688,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 466,00 zł</t>
-  </si>
-  <si>
-    <t>1 774,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
-    <t>968,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
-    <t>1 307,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 431,00 zł</t>
-  </si>
-  <si>
-    <t>1 703,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>922,00 zł</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>1 226,00 zł</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
-    <t>905,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>608,00 zł</t>
-  </si>
-  <si>
-    <t>687,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>829,00 zł</t>
-  </si>
-  <si>
-    <t>1 028,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>679,00 zł</t>
-  </si>
-  <si>
-    <t>808,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -953,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1010,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1502,7 +1217,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1523,7 +1238,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1544,7 +1259,7 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1565,7 +1280,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1586,7 +1301,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1607,7 +1322,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1628,7 +1343,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1649,7 +1364,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1670,7 +1385,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1691,7 +1406,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1712,7 +1427,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1733,27 +1448,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1787,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1817,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>17.3</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.8</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.8</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.6</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.4</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10.3</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1972,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1997,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>27.51</v>
       </c>
       <c r="C15" s="3">
         <v>17</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>24.53</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.75</v>
       </c>
       <c r="C17" s="3">
         <v>47</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>30.79</v>
       </c>
       <c r="C18" s="3">
         <v>46</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>27.96</v>
       </c>
       <c r="C19" s="3">
         <v>21</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2112,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>15.12</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>22.36</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>22.72</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.42</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9.47</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2208,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.42</v>
       </c>
       <c r="C33" s="3">
         <v>35</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.95</v>
       </c>
       <c r="C34" s="3">
         <v>15</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.68</v>
       </c>
       <c r="C35" s="3">
         <v>44</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>19.24</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9.029999999999999</v>
       </c>
       <c r="C37" s="3">
         <v>22</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2322,7 +2027,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2448,16 +2153,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2480,16 +2185,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2512,16 +2217,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2544,16 +2249,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2576,16 +2281,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2608,16 +2313,16 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2640,40 +2345,40 @@
       <c r="J18" s="3">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2706,266 +2411,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>120</v>
+      <c r="A1" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>128</v>
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10497</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9941</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7484</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6492</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3201</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3519</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13762</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8337</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7469</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14356</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8590</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4254</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4383</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11266</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12226</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10561</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>179</v>
+        <v>136</v>
+      </c>
+      <c r="C27" s="7">
+        <v>14593</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>180</v>
+      <c r="A30" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3000,86 +2699,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>185</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>202</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3087,22 +2786,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1977</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3110,22 +2809,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="7">
+        <v>557</v>
+      </c>
+      <c r="E17" s="7">
+        <v>780</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3133,22 +2832,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>214</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>682</v>
+      </c>
+      <c r="E18" s="7">
+        <v>812</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3156,22 +2855,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1365</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3179,22 +2878,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="7">
+        <v>779</v>
+      </c>
+      <c r="E20" s="7">
+        <v>888</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3202,22 +2901,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1144</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1590</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3225,22 +2924,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1202</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1334</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3248,22 +2947,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1489</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1965</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3271,22 +2970,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1372</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1852</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3294,22 +2993,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1338</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1806</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3317,22 +3016,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>250</v>
+        <v>168</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1144</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1567</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3340,22 +3039,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1642</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3363,22 +3062,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>168</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1584</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3386,22 +3085,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1303</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1811</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3409,22 +3108,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1468</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1688</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3432,22 +3131,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1466</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1774</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3455,22 +3154,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="7">
+        <v>712</v>
+      </c>
+      <c r="E32" s="7">
+        <v>968</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3478,22 +3177,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>276</v>
+        <v>183</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1167</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1307</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3501,22 +3200,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>279</v>
+        <v>185</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1431</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1703</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3524,22 +3223,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>282</v>
+        <v>179</v>
+      </c>
+      <c r="D35" s="7">
+        <v>922</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1023</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3547,22 +3246,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>241</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1965</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3570,22 +3269,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>288</v>
+        <v>193</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1226</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1447</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3593,22 +3292,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="7">
+        <v>742</v>
+      </c>
+      <c r="E38" s="7">
+        <v>905</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3616,22 +3315,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>294</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="7">
+        <v>608</v>
+      </c>
+      <c r="E39" s="7">
+        <v>687</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3639,22 +3338,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>168</v>
+      </c>
+      <c r="D40" s="7">
+        <v>829</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1028</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3662,22 +3361,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>201</v>
+      </c>
+      <c r="D41" s="7">
+        <v>679</v>
+      </c>
+      <c r="E41" s="7">
+        <v>808</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3685,68 +3384,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>303</v>
+        <v>183</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1595</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>180</v>
+      <c r="A45" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>307</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>308</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_035.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 1</t>
   </si>
@@ -61,391 +62,379 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Aleksander Dąbrowski</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Jan Jankowski</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
     <t>Kacper Wiśniewski</t>
   </si>
   <si>
-    <t>Hanna Lis</t>
-  </si>
-  <si>
-    <t>Szymon Grabowski</t>
-  </si>
-  <si>
-    <t>Emilia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 35 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Antoni Wiśniewski</t>
-  </si>
-  <si>
-    <t>17.04.2001</t>
-  </si>
-  <si>
-    <t>Wojciech Piotrowski</t>
-  </si>
-  <si>
-    <t>01.01.1987</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>07.12.1975</t>
-  </si>
-  <si>
-    <t>Emilia Urbaniak</t>
-  </si>
-  <si>
-    <t>11.06.1992</t>
-  </si>
-  <si>
-    <t>Oliwia Wilk</t>
-  </si>
-  <si>
-    <t>18.06.1988</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>11.09.1988</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>05.11.1987</t>
-  </si>
-  <si>
-    <t>Amelia Wójcik</t>
-  </si>
-  <si>
-    <t>27.09.1987</t>
-  </si>
-  <si>
-    <t>Kacper Lewandowski</t>
-  </si>
-  <si>
-    <t>25.08.1985</t>
-  </si>
-  <si>
-    <t>Hanna Borkowska</t>
-  </si>
-  <si>
-    <t>27.09.2005</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>21.03.1998</t>
-  </si>
-  <si>
-    <t>Oliwia Sikorska</t>
-  </si>
-  <si>
-    <t>06.12.2002</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>06.07.1989</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>03.03.1979</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>28.11.2005</t>
-  </si>
-  <si>
-    <t>Maja Borkowska</t>
-  </si>
-  <si>
-    <t>23.12.1981</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
-  </si>
-  <si>
-    <t>28.01.1989</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,151 +488,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,19 +1188,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1224,16 +1209,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1248,16 +1233,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1287,19 +1272,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1293,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,10 +1314,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6</v>
       </c>
       <c r="D23" s="3">
         <v>6</v>
@@ -1341,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1353,16 +1338,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
         <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,16 +1356,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="E25" s="3">
         <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -1392,13 +1377,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>5</v>
@@ -1413,19 +1398,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1437,16 +1422,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>17.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.9</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.1</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.8</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.3</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.6</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5.7</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.4</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.7</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10.3</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>27.51</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>8.3</v>
       </c>
       <c r="C15" s="3">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>24.53</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.23</v>
       </c>
       <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.75</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>19.27</v>
       </c>
       <c r="C17" s="3">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>30.79</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3.51</v>
       </c>
       <c r="C18" s="3">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>27.96</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>11</v>
       </c>
       <c r="C19" s="3">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>15.12</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>18.93</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>22.36</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.61</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>22.72</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>29.33</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.42</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>14.050000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9.47</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9.46</v>
       </c>
       <c r="C28" s="3">
-        <v>14</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>6.42</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15.51</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3.95</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>14.53</v>
       </c>
       <c r="C34" s="3">
-        <v>15</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.68</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>24.29</v>
       </c>
       <c r="C35" s="3">
-        <v>44</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>19.24</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>16.6</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9.029999999999999</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26.93</v>
       </c>
       <c r="C37" s="3">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2047,111 +2046,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2159,31 +2158,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
         <v>6</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2191,31 +2190,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2223,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,31 +2254,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2287,13 +2286,13 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -2302,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
         <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2319,16 +2318,16 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2337,20 +2336,20 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
         <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2366,7 +2365,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2397,10 +2396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2411,260 +2410,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
+      <c r="A1" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="7">
-        <v>10497</v>
+      <c r="B11" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8224</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9941</v>
+      <c r="B12" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10554</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7484</v>
+        <v>106</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8426</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6492</v>
+        <v>104</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12187</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3201</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3519</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4845</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13762</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14646</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8337</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6315</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7469</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4970</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14356</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12213</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8590</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>13514</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4254</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11753</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4383</v>
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6399</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <v>11266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="7">
-        <v>12226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="7">
-        <v>10561</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3546</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="7">
-        <v>14593</v>
-      </c>
+      <c r="A27" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2677,6 +2643,181 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>166</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>172</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3">
+        <v>149</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3">
+        <v>178</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3">
+        <v>160</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="3">
+        <v>160</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3">
+        <v>141</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3">
+        <v>95</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="3">
+        <v>154</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2699,86 +2840,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2786,22 +2927,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1443</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1977</v>
+        <v>156</v>
+      </c>
+      <c r="D16" s="8">
+        <v>572</v>
+      </c>
+      <c r="E16" s="8">
+        <v>704</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2812,16 +2953,16 @@
         <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="7">
-        <v>557</v>
-      </c>
-      <c r="E17" s="7">
-        <v>780</v>
+        <v>160</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1378</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1833</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>162</v>
@@ -2832,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="7">
-        <v>682</v>
-      </c>
-      <c r="E18" s="7">
-        <v>812</v>
+      <c r="D18" s="8">
+        <v>1387</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1845</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2855,19 +2996,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1414</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1187</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1365</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>169</v>
@@ -2883,11 +3024,11 @@
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="7">
-        <v>779</v>
-      </c>
-      <c r="E20" s="7">
-        <v>888</v>
+      <c r="D20" s="8">
+        <v>1478</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1966</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>172</v>
@@ -2906,11 +3047,11 @@
       <c r="C21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="7">
-        <v>1144</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1590</v>
+      <c r="D21" s="8">
+        <v>814</v>
+      </c>
+      <c r="E21" s="8">
+        <v>912</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>176</v>
@@ -2929,14 +3070,14 @@
       <c r="C22" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7">
-        <v>1202</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1334</v>
+      <c r="D22" s="8">
+        <v>1064</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1458</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>180</v>
@@ -2947,22 +3088,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="7">
-        <v>1489</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1965</v>
+      <c r="D23" s="8">
+        <v>766</v>
+      </c>
+      <c r="E23" s="8">
+        <v>881</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2970,22 +3111,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="8">
+        <v>784</v>
+      </c>
+      <c r="E24" s="8">
+        <v>878</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="7">
-        <v>1372</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1852</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2993,22 +3134,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="7">
-        <v>1338</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1806</v>
+      <c r="D25" s="8">
+        <v>896</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1156</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3016,16 +3157,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1144</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1567</v>
+        <v>182</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1459</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1663</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>186</v>
@@ -3039,22 +3180,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1479</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1642</v>
+        <v>160</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1172</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1535</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3062,22 +3203,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1584</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="8">
+        <v>932</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1193</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3085,22 +3226,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1303</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1811</v>
+        <v>189</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1252</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3108,22 +3249,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="8">
+        <v>665</v>
+      </c>
+      <c r="E30" s="8">
+        <v>858</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1468</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1688</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3134,19 +3275,19 @@
         <v>159</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="8">
+        <v>768</v>
+      </c>
+      <c r="E31" s="8">
+        <v>860</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="7">
-        <v>1466</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1774</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3157,19 +3298,19 @@
         <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1440</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1771</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D32" s="7">
-        <v>712</v>
-      </c>
-      <c r="E32" s="7">
-        <v>968</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3177,19 +3318,19 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1167</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1307</v>
+        <v>156</v>
+      </c>
+      <c r="D33" s="8">
+        <v>574</v>
+      </c>
+      <c r="E33" s="8">
+        <v>706</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>198</v>
@@ -3200,22 +3341,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1431</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1703</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1104</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1457</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3223,22 +3364,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="7">
-        <v>922</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1023</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1286</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1608</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3246,22 +3387,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1445</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1965</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1374</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1841</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3269,22 +3410,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1226</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1447</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1844</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3292,22 +3433,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="7">
-        <v>742</v>
-      </c>
-      <c r="E38" s="7">
-        <v>905</v>
+        <v>195</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1217</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1521</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3318,19 +3459,19 @@
         <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="7">
-        <v>608</v>
-      </c>
-      <c r="E39" s="7">
-        <v>687</v>
+        <v>179</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1417</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1559</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3338,22 +3479,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="7">
-        <v>829</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1028</v>
+        <v>163</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1117</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1452</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3361,22 +3502,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="7">
-        <v>679</v>
-      </c>
-      <c r="E41" s="7">
-        <v>808</v>
+        <v>203</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1332</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1732</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3384,58 +3525,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1595</v>
+        <v>204</v>
+      </c>
+      <c r="D42" s="8">
+        <v>540</v>
+      </c>
+      <c r="E42" s="8">
+        <v>632</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>137</v>
+      <c r="A45" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
